--- a/ExcelFiles/FFmpeg_Clang_Summary.xlsx
+++ b/ExcelFiles/FFmpeg_Clang_Summary.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyeedahmed/Desktop/Gitcode/LLMVerification/ExcelFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E677F3D-196F-934E-B0FC-29FC4207B3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-48500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="464">
   <si>
     <t>Commit Date</t>
   </si>
@@ -308,9 +314,6 @@
   </si>
   <si>
     <t>6f452ad1acadc50abc7d9b1b9d264e940a451ee7</t>
-  </si>
-  <si>
-    <t>83b34691429729fea2c78bf419622ceb4a7810b2</t>
   </si>
   <si>
     <t>dv: Fix small stack overread related to CVE-2011-3929 and CVE-2011-3936. Found with asan. Found-by: Mateusz "j00ru" Jurczyk and Gynvael Coldwind Signed-off-by: Alex Converse &lt;alex.converse@gmail.com&gt;</t>
@@ -555,10 +558,6 @@
     <t>fftools/textformat/avtextformat: Fix races when initializing formatters</t>
   </si>
   <si>
-    <t>Fix Requirement: avcodec/x86/hpeldsp_init: Use ff_avg_pixels16_mmxext
- Give me the edited c file as attachment (Rename it &lt;filename&gt;_llm.c). Also show the diff.</t>
-  </si>
-  <si>
     <t>libavformat/dv.c</t>
   </si>
   <si>
@@ -718,9 +717,6 @@
     <t>fftools/textformat/avtextformat.c</t>
   </si>
   <si>
-    <t>libavcodec/x86/hpeldsp_init.c</t>
-  </si>
-  <si>
     <t>dv_extract_audio</t>
   </si>
   <si>
@@ -925,9 +921,6 @@
     <t>formatters_register_all</t>
   </si>
   <si>
-    <t>hpeldsp_init_mmxext</t>
-  </si>
-  <si>
     <t>No Change (Recommended)</t>
   </si>
   <si>
@@ -971,9 +964,6 @@
   </si>
   <si>
     <t>Similar Warning</t>
-  </si>
-  <si>
-    <t>Same Error</t>
   </si>
   <si>
     <t>libavcodec/gifdec.c:125:18: error: 'break' statement not in loop or switch statement
@@ -1487,26 +1477,32 @@
     <t>6f452ad1acadc50abc7d9b1b9d264e940a451ee7_original.txt</t>
   </si>
   <si>
-    <t>83b34691429729fea2c78bf419622ceb4a7810b2_llm.txt</t>
-  </si>
-  <si>
-    <t>83b34691429729fea2c78bf419622ceb4a7810b2_original.txt</t>
-  </si>
-  <si>
     <t>original</t>
   </si>
   <si>
     <t>llm</t>
+  </si>
+  <si>
+    <t>c08d300481b8ebb846cd43a473988fdbc6793d1b</t>
+  </si>
+  <si>
+    <t>avformat/avformat: also clear FFFormatContext packet queue when closing a muxer</t>
+  </si>
+  <si>
+    <t>libavformat/avformat.c</t>
+  </si>
+  <si>
+    <t>avformat_free_context</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,13 +1566,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1614,7 +1618,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1648,6 +1652,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1682,9 +1687,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1857,14 +1863,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149:Q149"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40939</v>
       </c>
@@ -1946,13 +1957,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F2">
         <v>539</v>
@@ -1964,10 +1975,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1988,10 +1999,10 @@
         <v>189</v>
       </c>
       <c r="Q2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="R2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2012,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40939</v>
       </c>
@@ -2020,13 +2031,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F3">
         <v>539</v>
@@ -2038,10 +2049,10 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2062,10 +2073,10 @@
         <v>189</v>
       </c>
       <c r="Q3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="R3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2086,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40939</v>
       </c>
@@ -2094,13 +2105,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F4">
         <v>540</v>
@@ -2112,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2136,10 +2147,10 @@
         <v>373</v>
       </c>
       <c r="Q4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="R4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2160,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40939</v>
       </c>
@@ -2168,13 +2179,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F5">
         <v>540</v>
@@ -2186,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2210,10 +2221,10 @@
         <v>373</v>
       </c>
       <c r="Q5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="R5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2234,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>41181</v>
       </c>
@@ -2242,13 +2253,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F6">
         <v>645</v>
@@ -2260,10 +2271,10 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2284,10 +2295,10 @@
         <v>533</v>
       </c>
       <c r="Q6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="R6" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2308,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>41181</v>
       </c>
@@ -2316,13 +2327,13 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F7">
         <v>645</v>
@@ -2334,10 +2345,10 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2358,10 +2369,10 @@
         <v>533</v>
       </c>
       <c r="Q7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="R7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2382,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>41618</v>
       </c>
@@ -2390,13 +2401,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8">
         <v>1785</v>
@@ -2408,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2432,10 +2443,10 @@
         <v>1435</v>
       </c>
       <c r="Q8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="R8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2456,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>41618</v>
       </c>
@@ -2464,13 +2475,13 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F9">
         <v>1785</v>
@@ -2482,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2506,10 +2517,10 @@
         <v>1435</v>
       </c>
       <c r="Q9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="R9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2530,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>41992</v>
       </c>
@@ -2538,13 +2549,13 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F10">
         <v>327</v>
@@ -2556,16 +2567,16 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M10">
         <v>35</v>
@@ -2580,10 +2591,10 @@
         <v>157</v>
       </c>
       <c r="Q10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="R10" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2604,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>41992</v>
       </c>
@@ -2612,13 +2623,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F11">
         <v>327</v>
@@ -2630,16 +2641,16 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M11">
         <v>35</v>
@@ -2654,10 +2665,10 @@
         <v>157</v>
       </c>
       <c r="Q11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="R11" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2678,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42059</v>
       </c>
@@ -2686,13 +2697,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F12">
         <v>2394</v>
@@ -2704,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2752,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42059</v>
       </c>
@@ -2760,13 +2771,13 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F13">
         <v>401</v>
@@ -2778,10 +2789,10 @@
         <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2802,10 +2813,10 @@
         <v>391</v>
       </c>
       <c r="Q13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="R13" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2826,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42059</v>
       </c>
@@ -2834,13 +2845,13 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F14">
         <v>401</v>
@@ -2852,10 +2863,10 @@
         <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2876,10 +2887,10 @@
         <v>391</v>
       </c>
       <c r="Q14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="R14" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2900,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42059</v>
       </c>
@@ -2908,13 +2919,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F15">
         <v>2394</v>
@@ -2926,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2950,10 +2961,10 @@
         <v>329</v>
       </c>
       <c r="Q15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="R15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2974,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42059</v>
       </c>
@@ -2982,13 +2993,13 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F16">
         <v>2394</v>
@@ -3000,10 +3011,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -3024,10 +3035,10 @@
         <v>329</v>
       </c>
       <c r="Q16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="R16" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -3048,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42063</v>
       </c>
@@ -3056,13 +3067,13 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F17">
         <v>65</v>
@@ -3074,10 +3085,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3098,10 +3109,10 @@
         <v>65</v>
       </c>
       <c r="Q17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="R17" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3122,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42063</v>
       </c>
@@ -3130,13 +3141,13 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F18">
         <v>65</v>
@@ -3148,10 +3159,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3172,10 +3183,10 @@
         <v>65</v>
       </c>
       <c r="Q18" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="R18" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3196,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42063</v>
       </c>
@@ -3204,13 +3215,13 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F19">
         <v>130</v>
@@ -3222,10 +3233,10 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3246,10 +3257,10 @@
         <v>128</v>
       </c>
       <c r="Q19" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="R19" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3270,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42063</v>
       </c>
@@ -3278,13 +3289,13 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F20">
         <v>130</v>
@@ -3296,10 +3307,10 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3320,10 +3331,10 @@
         <v>128</v>
       </c>
       <c r="Q20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="R20" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -3344,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42065</v>
       </c>
@@ -3352,13 +3363,13 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F21">
         <v>958</v>
@@ -3370,10 +3381,10 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3394,10 +3405,10 @@
         <v>528</v>
       </c>
       <c r="Q21" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="R21" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3418,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42065</v>
       </c>
@@ -3426,13 +3437,13 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F22">
         <v>958</v>
@@ -3444,10 +3455,10 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J22" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3468,10 +3479,10 @@
         <v>528</v>
       </c>
       <c r="Q22" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="R22" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3492,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42065</v>
       </c>
@@ -3500,13 +3511,13 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F23">
         <v>3528</v>
@@ -3518,10 +3529,10 @@
         <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3542,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="R23" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3566,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42065</v>
       </c>
@@ -3574,13 +3585,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F24">
         <v>3528</v>
@@ -3592,10 +3603,10 @@
         <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3616,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="R24" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -3640,7 +3651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42067</v>
       </c>
@@ -3648,13 +3659,13 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F25">
         <v>295</v>
@@ -3666,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3690,10 +3701,10 @@
         <v>282</v>
       </c>
       <c r="Q25" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="R25" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3714,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42067</v>
       </c>
@@ -3722,13 +3733,13 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F26">
         <v>295</v>
@@ -3740,10 +3751,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J26" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3764,10 +3775,10 @@
         <v>282</v>
       </c>
       <c r="Q26" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="R26" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3788,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42067</v>
       </c>
@@ -3796,13 +3807,13 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F27">
         <v>200</v>
@@ -3814,10 +3825,10 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3838,10 +3849,10 @@
         <v>190</v>
       </c>
       <c r="Q27" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="R27" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3862,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42067</v>
       </c>
@@ -3870,13 +3881,13 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F28">
         <v>200</v>
@@ -3888,10 +3899,10 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3912,10 +3923,10 @@
         <v>190</v>
       </c>
       <c r="Q28" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="R28" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3936,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42068</v>
       </c>
@@ -3944,13 +3955,13 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F29">
         <v>293</v>
@@ -3962,10 +3973,10 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3986,10 +3997,10 @@
         <v>275</v>
       </c>
       <c r="Q29" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="R29" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4010,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42068</v>
       </c>
@@ -4018,13 +4029,13 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F30">
         <v>293</v>
@@ -4036,10 +4047,10 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -4060,10 +4071,10 @@
         <v>275</v>
       </c>
       <c r="Q30" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="R30" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -4084,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42068</v>
       </c>
@@ -4092,13 +4103,13 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F31">
         <v>1476</v>
@@ -4110,10 +4121,10 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -4134,10 +4145,10 @@
         <v>774</v>
       </c>
       <c r="Q31" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="R31" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4158,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42068</v>
       </c>
@@ -4166,13 +4177,13 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F32">
         <v>1476</v>
@@ -4184,10 +4195,10 @@
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4208,10 +4219,10 @@
         <v>774</v>
       </c>
       <c r="Q32" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="R32" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4232,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42068</v>
       </c>
@@ -4240,13 +4251,13 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F33">
         <v>802</v>
@@ -4258,10 +4269,10 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4282,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="R33" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4306,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42068</v>
       </c>
@@ -4314,13 +4325,13 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F34">
         <v>802</v>
@@ -4332,10 +4343,10 @@
         <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -4356,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="R34" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4380,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>42069</v>
       </c>
@@ -4388,13 +4399,13 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F35">
         <v>985</v>
@@ -4406,10 +4417,10 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4430,10 +4441,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="R35" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4454,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>42069</v>
       </c>
@@ -4462,13 +4473,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F36">
         <v>985</v>
@@ -4480,10 +4491,10 @@
         <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4504,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="R36" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4528,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>42069</v>
       </c>
@@ -4536,13 +4547,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F37">
         <v>958</v>
@@ -4554,10 +4565,10 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4578,10 +4589,10 @@
         <v>666</v>
       </c>
       <c r="Q37" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="R37" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4602,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>42069</v>
       </c>
@@ -4610,13 +4621,13 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F38">
         <v>958</v>
@@ -4628,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4652,10 +4663,10 @@
         <v>666</v>
       </c>
       <c r="Q38" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="R38" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4676,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>42071</v>
       </c>
@@ -4684,13 +4695,13 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F39">
         <v>1777</v>
@@ -4702,10 +4713,10 @@
         <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4726,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="R39" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4750,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>42071</v>
       </c>
@@ -4758,13 +4769,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F40">
         <v>1777</v>
@@ -4776,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J40" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4800,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="R40" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -4824,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>42071</v>
       </c>
@@ -4832,13 +4843,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F41">
         <v>979</v>
@@ -4850,10 +4861,10 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4874,10 +4885,10 @@
         <v>351</v>
       </c>
       <c r="Q41" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="R41" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -4898,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42071</v>
       </c>
@@ -4906,13 +4917,13 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F42">
         <v>979</v>
@@ -4924,10 +4935,10 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J42" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4948,10 +4959,10 @@
         <v>351</v>
       </c>
       <c r="Q42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="R42" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4972,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42071</v>
       </c>
@@ -4980,13 +4991,13 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F43">
         <v>1779</v>
@@ -4998,10 +5009,10 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -5022,10 +5033,10 @@
         <v>1342</v>
       </c>
       <c r="Q43" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="R43" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5046,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42071</v>
       </c>
@@ -5054,13 +5065,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F44">
         <v>1779</v>
@@ -5072,10 +5083,10 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J44" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5096,10 +5107,10 @@
         <v>1342</v>
       </c>
       <c r="Q44" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="R44" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5120,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42071</v>
       </c>
@@ -5128,13 +5139,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F45">
         <v>981</v>
@@ -5146,10 +5157,10 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J45" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -5170,10 +5181,10 @@
         <v>676</v>
       </c>
       <c r="Q45" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="R45" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5194,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42071</v>
       </c>
@@ -5202,13 +5213,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F46">
         <v>981</v>
@@ -5220,10 +5231,10 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -5244,10 +5255,10 @@
         <v>676</v>
       </c>
       <c r="Q46" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="R46" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5268,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>42072</v>
       </c>
@@ -5276,13 +5287,13 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F47">
         <v>566</v>
@@ -5294,10 +5305,10 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5318,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="R47" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -5342,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>42072</v>
       </c>
@@ -5350,13 +5361,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F48">
         <v>566</v>
@@ -5368,10 +5379,10 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5392,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="R48" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -5416,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>42387</v>
       </c>
@@ -5424,13 +5435,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F49">
         <v>362</v>
@@ -5442,10 +5453,10 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J49" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5466,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="R49" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -5490,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>42387</v>
       </c>
@@ -5498,13 +5509,13 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F50">
         <v>362</v>
@@ -5516,10 +5527,10 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J50" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5540,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="R50" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -5564,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43757</v>
       </c>
@@ -5572,13 +5583,13 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F51">
         <v>172</v>
@@ -5590,10 +5601,10 @@
         <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J51" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5614,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="R51" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -5638,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43757</v>
       </c>
@@ -5646,13 +5657,13 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F52">
         <v>172</v>
@@ -5664,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J52" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5688,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="R52" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -5712,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43757</v>
       </c>
@@ -5720,13 +5731,13 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F53">
         <v>1066</v>
@@ -5738,10 +5749,10 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J53" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5762,10 +5773,10 @@
         <v>961</v>
       </c>
       <c r="Q53" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="R53" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -5786,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43757</v>
       </c>
@@ -5794,13 +5805,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F54">
         <v>1066</v>
@@ -5812,10 +5823,10 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J54" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5836,10 +5847,10 @@
         <v>961</v>
       </c>
       <c r="Q54" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="R54" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -5860,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44345</v>
       </c>
@@ -5868,13 +5879,13 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F55">
         <v>7382</v>
@@ -5886,10 +5897,10 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J55" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5910,10 +5921,10 @@
         <v>2283</v>
       </c>
       <c r="Q55" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="R55" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S55">
         <v>3</v>
@@ -5934,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44345</v>
       </c>
@@ -5942,13 +5953,13 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F56">
         <v>7382</v>
@@ -5960,10 +5971,10 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J56" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5984,10 +5995,10 @@
         <v>2283</v>
       </c>
       <c r="Q56" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="R56" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S56">
         <v>3</v>
@@ -6008,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44617</v>
       </c>
@@ -6016,13 +6027,13 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F57">
         <v>389</v>
@@ -6034,10 +6045,10 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J57" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -6058,10 +6069,10 @@
         <v>353</v>
       </c>
       <c r="Q57" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="R57" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -6082,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44617</v>
       </c>
@@ -6090,13 +6101,13 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F58">
         <v>389</v>
@@ -6108,10 +6119,10 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6132,10 +6143,10 @@
         <v>353</v>
       </c>
       <c r="Q58" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="R58" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -6156,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44641</v>
       </c>
@@ -6164,13 +6175,13 @@
         <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F59">
         <v>2135</v>
@@ -6182,10 +6193,10 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J59" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -6206,10 +6217,10 @@
         <v>590</v>
       </c>
       <c r="Q59" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="R59" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -6230,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44641</v>
       </c>
@@ -6238,13 +6249,13 @@
         <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F60">
         <v>2135</v>
@@ -6256,10 +6267,10 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J60" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -6280,10 +6291,10 @@
         <v>590</v>
       </c>
       <c r="Q60" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="R60" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -6304,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44642</v>
       </c>
@@ -6312,13 +6323,13 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F61">
         <v>7516</v>
@@ -6330,10 +6341,10 @@
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J61" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -6354,10 +6365,10 @@
         <v>5657</v>
       </c>
       <c r="Q61" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="R61" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -6378,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44642</v>
       </c>
@@ -6386,13 +6397,13 @@
         <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F62">
         <v>7516</v>
@@ -6404,10 +6415,10 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J62" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -6428,10 +6439,10 @@
         <v>5657</v>
       </c>
       <c r="Q62" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="R62" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -6452,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44660</v>
       </c>
@@ -6460,13 +6471,13 @@
         <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E63" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F63">
         <v>3449</v>
@@ -6478,10 +6489,10 @@
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J63" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6502,10 +6513,10 @@
         <v>2746</v>
       </c>
       <c r="Q63" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="R63" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -6526,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44660</v>
       </c>
@@ -6534,13 +6545,13 @@
         <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F64">
         <v>3449</v>
@@ -6552,10 +6563,10 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J64" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6576,10 +6587,10 @@
         <v>2746</v>
       </c>
       <c r="Q64" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="R64" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -6600,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44680</v>
       </c>
@@ -6608,13 +6619,13 @@
         <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F65">
         <v>482</v>
@@ -6626,10 +6637,10 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -6650,10 +6661,10 @@
         <v>444</v>
       </c>
       <c r="Q65" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="R65" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -6674,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44680</v>
       </c>
@@ -6682,13 +6693,13 @@
         <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F66">
         <v>482</v>
@@ -6700,10 +6711,10 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J66" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -6724,10 +6735,10 @@
         <v>444</v>
       </c>
       <c r="Q66" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="R66" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -6748,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45204</v>
       </c>
@@ -6756,13 +6767,13 @@
         <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F67">
         <v>1509</v>
@@ -6774,10 +6785,10 @@
         <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J67" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6798,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="R67" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S67">
         <v>2</v>
@@ -6822,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45204</v>
       </c>
@@ -6830,13 +6841,13 @@
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F68">
         <v>1509</v>
@@ -6848,10 +6859,10 @@
         <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J68" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -6872,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="R68" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S68">
         <v>2</v>
@@ -6896,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45378</v>
       </c>
@@ -6904,13 +6915,13 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F69">
         <v>971</v>
@@ -6922,10 +6933,10 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J69" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6946,10 +6957,10 @@
         <v>395</v>
       </c>
       <c r="Q69" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="R69" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S69">
         <v>2</v>
@@ -6970,7 +6981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45378</v>
       </c>
@@ -6978,13 +6989,13 @@
         <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F70">
         <v>971</v>
@@ -6996,10 +7007,10 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -7020,10 +7031,10 @@
         <v>395</v>
       </c>
       <c r="Q70" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="R70" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S70">
         <v>2</v>
@@ -7044,7 +7055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45383</v>
       </c>
@@ -7052,13 +7063,13 @@
         <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F71">
         <v>10299</v>
@@ -7070,10 +7081,10 @@
         <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J71" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -7094,10 +7105,10 @@
         <v>9455</v>
       </c>
       <c r="Q71" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="R71" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -7118,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45383</v>
       </c>
@@ -7126,13 +7137,13 @@
         <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F72">
         <v>10299</v>
@@ -7144,10 +7155,10 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J72" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -7168,10 +7179,10 @@
         <v>9455</v>
       </c>
       <c r="Q72" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="R72" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S72">
         <v>2</v>
@@ -7192,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45384</v>
       </c>
@@ -7200,13 +7211,13 @@
         <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F73">
         <v>10301</v>
@@ -7218,10 +7229,10 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J73" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -7242,10 +7253,10 @@
         <v>5059</v>
       </c>
       <c r="Q73" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="R73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -7266,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45384</v>
       </c>
@@ -7274,13 +7285,13 @@
         <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F74">
         <v>10301</v>
@@ -7292,10 +7303,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J74" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -7316,10 +7327,10 @@
         <v>5059</v>
       </c>
       <c r="Q74" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="R74" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -7340,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45384</v>
       </c>
@@ -7348,13 +7359,13 @@
         <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F75">
         <v>454</v>
@@ -7366,10 +7377,10 @@
         <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J75" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -7390,10 +7401,10 @@
         <v>381</v>
       </c>
       <c r="Q75" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="R75" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -7414,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45384</v>
       </c>
@@ -7422,13 +7433,13 @@
         <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F76">
         <v>454</v>
@@ -7440,10 +7451,10 @@
         <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J76" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -7464,10 +7475,10 @@
         <v>381</v>
       </c>
       <c r="Q76" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="R76" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S76">
         <v>3</v>
@@ -7488,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45384</v>
       </c>
@@ -7496,13 +7507,13 @@
         <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F77">
         <v>10302</v>
@@ -7514,10 +7525,10 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J77" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -7538,10 +7549,10 @@
         <v>5060</v>
       </c>
       <c r="Q77" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="R77" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -7562,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45384</v>
       </c>
@@ -7570,13 +7581,13 @@
         <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F78">
         <v>10302</v>
@@ -7588,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J78" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7612,10 +7623,10 @@
         <v>5060</v>
       </c>
       <c r="Q78" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="R78" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -7636,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45384</v>
       </c>
@@ -7644,13 +7655,13 @@
         <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F79">
         <v>10300</v>
@@ -7662,10 +7673,10 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J79" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -7686,10 +7697,10 @@
         <v>5058</v>
       </c>
       <c r="Q79" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="R79" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -7710,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45384</v>
       </c>
@@ -7718,13 +7729,13 @@
         <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E80" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F80">
         <v>10300</v>
@@ -7736,10 +7747,10 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J80" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -7760,10 +7771,10 @@
         <v>5058</v>
       </c>
       <c r="Q80" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="R80" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -7784,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45384</v>
       </c>
@@ -7792,13 +7803,13 @@
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E81" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F81">
         <v>10302</v>
@@ -7810,10 +7821,10 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J81" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -7834,10 +7845,10 @@
         <v>5061</v>
       </c>
       <c r="Q81" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="R81" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -7858,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45384</v>
       </c>
@@ -7866,13 +7877,13 @@
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F82">
         <v>10302</v>
@@ -7884,10 +7895,10 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J82" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -7908,10 +7919,10 @@
         <v>5061</v>
       </c>
       <c r="Q82" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="R82" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -7932,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45384</v>
       </c>
@@ -7940,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E83" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F83">
         <v>1183</v>
@@ -7958,10 +7969,10 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J83" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -7982,10 +7993,10 @@
         <v>303</v>
       </c>
       <c r="Q83" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="R83" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -8006,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45384</v>
       </c>
@@ -8014,13 +8025,13 @@
         <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F84">
         <v>1183</v>
@@ -8032,10 +8043,10 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J84" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -8056,10 +8067,10 @@
         <v>303</v>
       </c>
       <c r="Q84" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="R84" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -8080,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45384</v>
       </c>
@@ -8088,13 +8099,13 @@
         <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F85">
         <v>10299</v>
@@ -8106,10 +8117,10 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J85" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -8130,10 +8141,10 @@
         <v>8890</v>
       </c>
       <c r="Q85" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="R85" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S85">
         <v>2</v>
@@ -8154,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45384</v>
       </c>
@@ -8162,13 +8173,13 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E86" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F86">
         <v>10299</v>
@@ -8180,10 +8191,10 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J86" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -8204,10 +8215,10 @@
         <v>8890</v>
       </c>
       <c r="Q86" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="R86" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -8228,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45389</v>
       </c>
@@ -8236,13 +8247,13 @@
         <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F87">
         <v>1360</v>
@@ -8254,10 +8265,10 @@
         <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -8278,10 +8289,10 @@
         <v>324</v>
       </c>
       <c r="Q87" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="R87" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -8302,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45389</v>
       </c>
@@ -8310,13 +8321,13 @@
         <v>67</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F88">
         <v>1360</v>
@@ -8328,10 +8339,10 @@
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -8352,10 +8363,10 @@
         <v>324</v>
       </c>
       <c r="Q88" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="R88" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -8376,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45409</v>
       </c>
@@ -8384,13 +8395,13 @@
         <v>68</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F89">
         <v>10319</v>
@@ -8402,10 +8413,10 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J89" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -8426,10 +8437,10 @@
         <v>9478</v>
       </c>
       <c r="Q89" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="R89" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S89">
         <v>10</v>
@@ -8450,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45409</v>
       </c>
@@ -8458,13 +8469,13 @@
         <v>68</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F90">
         <v>10319</v>
@@ -8476,10 +8487,10 @@
         <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J90" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -8500,10 +8511,10 @@
         <v>9478</v>
       </c>
       <c r="Q90" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="R90" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -8524,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45658</v>
       </c>
@@ -8532,13 +8543,13 @@
         <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F91">
         <v>288</v>
@@ -8550,10 +8561,10 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J91" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -8574,10 +8585,10 @@
         <v>167</v>
       </c>
       <c r="Q91" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R91" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -8598,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45658</v>
       </c>
@@ -8606,13 +8617,13 @@
         <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F92">
         <v>288</v>
@@ -8624,10 +8635,10 @@
         <v>5</v>
       </c>
       <c r="I92" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J92" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -8648,10 +8659,10 @@
         <v>167</v>
       </c>
       <c r="Q92" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="R92" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -8672,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45660</v>
       </c>
@@ -8680,13 +8691,13 @@
         <v>70</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F93">
         <v>1183</v>
@@ -8698,10 +8709,10 @@
         <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -8722,10 +8733,10 @@
         <v>384</v>
       </c>
       <c r="Q93" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="R93" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -8746,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45660</v>
       </c>
@@ -8754,13 +8765,13 @@
         <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F94">
         <v>1183</v>
@@ -8772,10 +8783,10 @@
         <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J94" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -8796,10 +8807,10 @@
         <v>384</v>
       </c>
       <c r="Q94" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="R94" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -8820,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45660</v>
       </c>
@@ -8828,13 +8839,13 @@
         <v>71</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E95" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F95">
         <v>927</v>
@@ -8846,7 +8857,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -8870,10 +8881,10 @@
         <v>835</v>
       </c>
       <c r="Q95" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="R95" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -8894,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45660</v>
       </c>
@@ -8902,13 +8913,13 @@
         <v>71</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F96">
         <v>927</v>
@@ -8920,7 +8931,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -8944,10 +8955,10 @@
         <v>835</v>
       </c>
       <c r="Q96" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="R96" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -8968,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45662</v>
       </c>
@@ -8976,13 +8987,13 @@
         <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E97" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F97">
         <v>927</v>
@@ -8994,10 +9005,10 @@
         <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J97" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -9018,10 +9029,10 @@
         <v>835</v>
       </c>
       <c r="Q97" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="R97" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -9042,7 +9053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45662</v>
       </c>
@@ -9050,13 +9061,13 @@
         <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F98">
         <v>927</v>
@@ -9068,10 +9079,10 @@
         <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J98" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -9092,10 +9103,10 @@
         <v>835</v>
       </c>
       <c r="Q98" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="R98" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -9116,7 +9127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45690</v>
       </c>
@@ -9124,13 +9135,13 @@
         <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E99" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F99">
         <v>2665</v>
@@ -9142,10 +9153,10 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J99" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -9166,10 +9177,10 @@
         <v>767</v>
       </c>
       <c r="Q99" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="R99" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -9190,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45690</v>
       </c>
@@ -9198,13 +9209,13 @@
         <v>73</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E100" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F100">
         <v>2665</v>
@@ -9216,10 +9227,10 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J100" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -9240,10 +9251,10 @@
         <v>767</v>
       </c>
       <c r="Q100" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="R100" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -9264,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45691</v>
       </c>
@@ -9272,13 +9283,13 @@
         <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E101" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F101">
         <v>1292</v>
@@ -9290,10 +9301,10 @@
         <v>10</v>
       </c>
       <c r="I101" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J101" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -9314,10 +9325,10 @@
         <v>714</v>
       </c>
       <c r="Q101" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="R101" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -9338,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45691</v>
       </c>
@@ -9346,13 +9357,13 @@
         <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E102" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F102">
         <v>1292</v>
@@ -9364,10 +9375,10 @@
         <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J102" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -9388,10 +9399,10 @@
         <v>714</v>
       </c>
       <c r="Q102" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="R102" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -9412,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45707</v>
       </c>
@@ -9420,13 +9431,13 @@
         <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E103" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F103">
         <v>1143</v>
@@ -9438,7 +9449,7 @@
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -9462,10 +9473,10 @@
         <v>791</v>
       </c>
       <c r="Q103" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="R103" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -9486,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45707</v>
       </c>
@@ -9494,13 +9505,13 @@
         <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E104" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F104">
         <v>1143</v>
@@ -9512,7 +9523,7 @@
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -9536,10 +9547,10 @@
         <v>791</v>
       </c>
       <c r="Q104" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="R104" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -9560,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45714</v>
       </c>
@@ -9568,13 +9579,13 @@
         <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E105" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F105">
         <v>3199</v>
@@ -9586,10 +9597,10 @@
         <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J105" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -9610,10 +9621,10 @@
         <v>3134</v>
       </c>
       <c r="Q105" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="R105" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -9634,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45714</v>
       </c>
@@ -9642,13 +9653,13 @@
         <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E106" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F106">
         <v>3199</v>
@@ -9660,10 +9671,10 @@
         <v>7</v>
       </c>
       <c r="I106" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J106" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -9684,10 +9695,10 @@
         <v>3134</v>
       </c>
       <c r="Q106" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="R106" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -9708,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45719</v>
       </c>
@@ -9716,13 +9727,13 @@
         <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E107" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F107">
         <v>3200</v>
@@ -9734,10 +9745,10 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J107" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -9758,10 +9769,10 @@
         <v>2074</v>
       </c>
       <c r="Q107" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="R107" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -9782,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45719</v>
       </c>
@@ -9790,13 +9801,13 @@
         <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E108" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F108">
         <v>3200</v>
@@ -9808,10 +9819,10 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -9832,10 +9843,10 @@
         <v>2074</v>
       </c>
       <c r="Q108" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="R108" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -9856,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45733</v>
       </c>
@@ -9864,13 +9875,13 @@
         <v>78</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E109" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F109">
         <v>3076</v>
@@ -9882,10 +9893,10 @@
         <v>7</v>
       </c>
       <c r="I109" t="s">
+        <v>297</v>
+      </c>
+      <c r="J109" t="s">
         <v>301</v>
-      </c>
-      <c r="J109" t="s">
-        <v>305</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -9906,10 +9917,10 @@
         <v>1631</v>
       </c>
       <c r="Q109" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="R109" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -9930,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45733</v>
       </c>
@@ -9938,13 +9949,13 @@
         <v>78</v>
       </c>
       <c r="C110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E110" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F110">
         <v>3076</v>
@@ -9956,10 +9967,10 @@
         <v>7</v>
       </c>
       <c r="I110" t="s">
+        <v>297</v>
+      </c>
+      <c r="J110" t="s">
         <v>301</v>
-      </c>
-      <c r="J110" t="s">
-        <v>305</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -9980,10 +9991,10 @@
         <v>1631</v>
       </c>
       <c r="Q110" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="R110" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -10004,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45741</v>
       </c>
@@ -10012,13 +10023,13 @@
         <v>79</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F111">
         <v>967</v>
@@ -10030,10 +10041,10 @@
         <v>4</v>
       </c>
       <c r="I111" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J111" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -10054,10 +10065,10 @@
         <v>345</v>
       </c>
       <c r="Q111" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="R111" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -10078,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45741</v>
       </c>
@@ -10086,13 +10097,13 @@
         <v>79</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F112">
         <v>967</v>
@@ -10104,10 +10115,10 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J112" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -10128,10 +10139,10 @@
         <v>345</v>
       </c>
       <c r="Q112" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="R112" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -10152,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45752</v>
       </c>
@@ -10160,13 +10171,13 @@
         <v>80</v>
       </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F113">
         <v>2223</v>
@@ -10178,10 +10189,10 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J113" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -10202,10 +10213,10 @@
         <v>212</v>
       </c>
       <c r="Q113" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="R113" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -10226,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45752</v>
       </c>
@@ -10234,13 +10245,13 @@
         <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F114">
         <v>2223</v>
@@ -10252,10 +10263,10 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J114" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -10276,10 +10287,10 @@
         <v>212</v>
       </c>
       <c r="Q114" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="R114" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -10300,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45754</v>
       </c>
@@ -10308,13 +10319,13 @@
         <v>81</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F115">
         <v>1932</v>
@@ -10326,10 +10337,10 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J115" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -10350,10 +10361,10 @@
         <v>962</v>
       </c>
       <c r="Q115" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="R115" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -10374,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45754</v>
       </c>
@@ -10382,13 +10393,13 @@
         <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E116" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F116">
         <v>1932</v>
@@ -10400,10 +10411,10 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J116" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -10424,10 +10435,10 @@
         <v>962</v>
       </c>
       <c r="Q116" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="R116" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -10448,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45782</v>
       </c>
@@ -10456,13 +10467,13 @@
         <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E117" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F117">
         <v>4230</v>
@@ -10474,10 +10485,10 @@
         <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J117" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -10498,10 +10509,10 @@
         <v>1190</v>
       </c>
       <c r="Q117" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="R117" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -10522,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45782</v>
       </c>
@@ -10530,13 +10541,13 @@
         <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E118" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F118">
         <v>4230</v>
@@ -10548,10 +10559,10 @@
         <v>12</v>
       </c>
       <c r="I118" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J118" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -10572,10 +10583,10 @@
         <v>1190</v>
       </c>
       <c r="Q118" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="R118" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -10596,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45791</v>
       </c>
@@ -10604,13 +10615,13 @@
         <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D119" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E119" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F119">
         <v>160</v>
@@ -10622,10 +10633,10 @@
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J119" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -10646,10 +10657,10 @@
         <v>139</v>
       </c>
       <c r="Q119" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="R119" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -10670,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45791</v>
       </c>
@@ -10678,13 +10689,13 @@
         <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E120" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F120">
         <v>160</v>
@@ -10696,10 +10707,10 @@
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J120" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -10720,10 +10731,10 @@
         <v>139</v>
       </c>
       <c r="Q120" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="R120" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -10744,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45795</v>
       </c>
@@ -10752,13 +10763,13 @@
         <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E121" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F121">
         <v>1033</v>
@@ -10770,10 +10781,10 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J121" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -10794,10 +10805,10 @@
         <v>362</v>
       </c>
       <c r="Q121" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="R121" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -10818,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45795</v>
       </c>
@@ -10826,13 +10837,13 @@
         <v>84</v>
       </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D122" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E122" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F122">
         <v>1033</v>
@@ -10844,10 +10855,10 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J122" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -10868,10 +10879,10 @@
         <v>362</v>
       </c>
       <c r="Q122" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="R122" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -10892,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45800</v>
       </c>
@@ -10900,13 +10911,13 @@
         <v>85</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E123" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F123">
         <v>2705</v>
@@ -10918,10 +10929,10 @@
         <v>5</v>
       </c>
       <c r="I123" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J123" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -10942,10 +10953,10 @@
         <v>883</v>
       </c>
       <c r="Q123" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="R123" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -10966,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45800</v>
       </c>
@@ -10974,13 +10985,13 @@
         <v>85</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D124" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E124" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F124">
         <v>2705</v>
@@ -10992,10 +11003,10 @@
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J124" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -11016,10 +11027,10 @@
         <v>883</v>
       </c>
       <c r="Q124" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="R124" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -11040,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45800</v>
       </c>
@@ -11048,13 +11059,13 @@
         <v>86</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D125" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E125" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F125">
         <v>2706</v>
@@ -11066,7 +11077,7 @@
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -11090,10 +11101,10 @@
         <v>812</v>
       </c>
       <c r="Q125" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="R125" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -11114,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45800</v>
       </c>
@@ -11122,13 +11133,13 @@
         <v>86</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E126" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F126">
         <v>2706</v>
@@ -11140,7 +11151,7 @@
         <v>8</v>
       </c>
       <c r="I126" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J126" t="s">
         <v>19</v>
@@ -11164,10 +11175,10 @@
         <v>812</v>
       </c>
       <c r="Q126" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="R126" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -11188,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45801</v>
       </c>
@@ -11196,13 +11207,13 @@
         <v>87</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D127" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E127" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F127">
         <v>1247</v>
@@ -11214,10 +11225,10 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J127" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -11238,10 +11249,10 @@
         <v>450</v>
       </c>
       <c r="Q127" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="R127" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -11262,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45801</v>
       </c>
@@ -11270,13 +11281,13 @@
         <v>87</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E128" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F128">
         <v>1247</v>
@@ -11288,10 +11299,10 @@
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J128" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -11312,10 +11323,10 @@
         <v>450</v>
       </c>
       <c r="Q128" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="R128" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -11336,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45805</v>
       </c>
@@ -11344,13 +11355,13 @@
         <v>88</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E129" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F129">
         <v>1036</v>
@@ -11362,10 +11373,10 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J129" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -11386,10 +11397,10 @@
         <v>362</v>
       </c>
       <c r="Q129" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="R129" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -11410,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45805</v>
       </c>
@@ -11418,13 +11429,13 @@
         <v>88</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D130" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E130" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F130">
         <v>1036</v>
@@ -11436,10 +11447,10 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J130" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -11460,10 +11471,10 @@
         <v>362</v>
       </c>
       <c r="Q130" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="R130" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -11484,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45807</v>
       </c>
@@ -11492,13 +11503,13 @@
         <v>89</v>
       </c>
       <c r="C131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D131" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E131" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F131">
         <v>944</v>
@@ -11510,10 +11521,10 @@
         <v>37</v>
       </c>
       <c r="I131" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J131" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -11534,10 +11545,10 @@
         <v>259</v>
       </c>
       <c r="Q131" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="R131" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -11558,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45807</v>
       </c>
@@ -11566,13 +11577,13 @@
         <v>89</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D132" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E132" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F132">
         <v>944</v>
@@ -11584,10 +11595,10 @@
         <v>37</v>
       </c>
       <c r="I132" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J132" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -11608,10 +11619,10 @@
         <v>259</v>
       </c>
       <c r="Q132" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="R132" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -11632,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45807</v>
       </c>
@@ -11640,13 +11651,13 @@
         <v>90</v>
       </c>
       <c r="C133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D133" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E133" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F133">
         <v>942</v>
@@ -11658,10 +11669,10 @@
         <v>4</v>
       </c>
       <c r="I133" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J133" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -11682,10 +11693,10 @@
         <v>248</v>
       </c>
       <c r="Q133" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="R133" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -11706,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45807</v>
       </c>
@@ -11714,13 +11725,13 @@
         <v>90</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E134" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F134">
         <v>942</v>
@@ -11732,10 +11743,10 @@
         <v>4</v>
       </c>
       <c r="I134" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J134" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -11756,10 +11767,10 @@
         <v>248</v>
       </c>
       <c r="Q134" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="R134" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -11780,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45808</v>
       </c>
@@ -11788,13 +11799,13 @@
         <v>91</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E135" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F135">
         <v>3087</v>
@@ -11806,10 +11817,10 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J135" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -11830,10 +11841,10 @@
         <v>391</v>
       </c>
       <c r="Q135" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="R135" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -11854,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45808</v>
       </c>
@@ -11862,13 +11873,13 @@
         <v>91</v>
       </c>
       <c r="C136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D136" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F136">
         <v>3087</v>
@@ -11880,10 +11891,10 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J136" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -11904,10 +11915,10 @@
         <v>391</v>
       </c>
       <c r="Q136" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="R136" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S136">
         <v>2</v>
@@ -11928,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45808</v>
       </c>
@@ -11936,13 +11947,13 @@
         <v>92</v>
       </c>
       <c r="C137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D137" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E137" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F137">
         <v>121</v>
@@ -11954,16 +11965,16 @@
         <v>66</v>
       </c>
       <c r="I137" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J137" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K137" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L137" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -11978,10 +11989,10 @@
         <v>0</v>
       </c>
       <c r="Q137" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="R137" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -12002,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45808</v>
       </c>
@@ -12010,13 +12021,13 @@
         <v>92</v>
       </c>
       <c r="C138" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D138" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E138" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F138">
         <v>121</v>
@@ -12028,16 +12039,16 @@
         <v>66</v>
       </c>
       <c r="I138" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J138" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K138" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L138" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -12052,10 +12063,10 @@
         <v>0</v>
       </c>
       <c r="Q138" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="R138" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -12076,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45808</v>
       </c>
@@ -12084,13 +12095,13 @@
         <v>93</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D139" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E139" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F139">
         <v>683</v>
@@ -12102,10 +12113,10 @@
         <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J139" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -12126,10 +12137,10 @@
         <v>316</v>
       </c>
       <c r="Q139" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="R139" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -12150,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45808</v>
       </c>
@@ -12158,13 +12169,13 @@
         <v>93</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D140" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E140" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F140">
         <v>683</v>
@@ -12176,10 +12187,10 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J140" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -12200,10 +12211,10 @@
         <v>316</v>
       </c>
       <c r="Q140" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="R140" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -12224,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45808</v>
       </c>
@@ -12232,13 +12243,13 @@
         <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D141" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E141" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F141">
         <v>167</v>
@@ -12250,16 +12261,16 @@
         <v>27</v>
       </c>
       <c r="I141" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J141" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -12274,10 +12285,10 @@
         <v>0</v>
       </c>
       <c r="Q141" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="R141" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S141">
         <v>10</v>
@@ -12298,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45808</v>
       </c>
@@ -12306,13 +12317,13 @@
         <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D142" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E142" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F142">
         <v>167</v>
@@ -12324,16 +12335,16 @@
         <v>27</v>
       </c>
       <c r="I142" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J142" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -12348,10 +12359,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="R142" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -12372,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45808</v>
       </c>
@@ -12380,13 +12391,13 @@
         <v>95</v>
       </c>
       <c r="C143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D143" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E143" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F143">
         <v>8948</v>
@@ -12398,10 +12409,10 @@
         <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J143" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -12422,10 +12433,10 @@
         <v>0</v>
       </c>
       <c r="Q143" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="R143" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S143">
         <v>20</v>
@@ -12446,7 +12457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45808</v>
       </c>
@@ -12454,13 +12465,13 @@
         <v>95</v>
       </c>
       <c r="C144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D144" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E144" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F144">
         <v>8948</v>
@@ -12472,10 +12483,10 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J144" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -12496,10 +12507,10 @@
         <v>0</v>
       </c>
       <c r="Q144" t="s">
+        <v>453</v>
+      </c>
+      <c r="R144" t="s">
         <v>458</v>
-      </c>
-      <c r="R144" t="s">
-        <v>465</v>
       </c>
       <c r="S144">
         <v>20</v>
@@ -12520,7 +12531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45809</v>
       </c>
@@ -12528,13 +12539,13 @@
         <v>96</v>
       </c>
       <c r="C145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D145" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E145" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F145">
         <v>8948</v>
@@ -12546,10 +12557,10 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J145" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -12570,11 +12581,11 @@
         <v>6553</v>
       </c>
       <c r="Q145" t="s">
+        <v>454</v>
+      </c>
+      <c r="R145" t="s">
         <v>459</v>
       </c>
-      <c r="R145" t="s">
-        <v>466</v>
-      </c>
       <c r="S145">
         <v>0</v>
       </c>
@@ -12594,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45809</v>
       </c>
@@ -12602,13 +12613,13 @@
         <v>96</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D146" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E146" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F146">
         <v>8948</v>
@@ -12620,10 +12631,10 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J146" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -12644,10 +12655,10 @@
         <v>6553</v>
       </c>
       <c r="Q146" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="R146" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -12668,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45810</v>
       </c>
@@ -12676,13 +12687,13 @@
         <v>97</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F147">
         <v>708</v>
@@ -12694,13 +12705,13 @@
         <v>33</v>
       </c>
       <c r="I147" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J147" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K147" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L147">
         <v>0</v>
@@ -12718,10 +12729,10 @@
         <v>703</v>
       </c>
       <c r="Q147" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R147" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S147">
         <v>0</v>
@@ -12742,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45810</v>
       </c>
@@ -12750,13 +12761,13 @@
         <v>97</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D148" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F148">
         <v>708</v>
@@ -12768,13 +12779,13 @@
         <v>33</v>
       </c>
       <c r="I148" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J148" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K148" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -12792,60 +12803,60 @@
         <v>703</v>
       </c>
       <c r="Q148" t="s">
+        <v>457</v>
+      </c>
+      <c r="R148" t="s">
+        <v>458</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B149" t="s">
+        <v>460</v>
+      </c>
+      <c r="C149" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149" t="s">
         <v>462</v>
       </c>
-      <c r="R148" t="s">
-        <v>465</v>
-      </c>
-      <c r="S148">
-        <v>0</v>
-      </c>
-      <c r="T148">
-        <v>0</v>
-      </c>
-      <c r="U148">
-        <v>0</v>
-      </c>
-      <c r="V148">
-        <v>0</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24">
-      <c r="A149" s="2">
-        <v>45810</v>
-      </c>
-      <c r="B149" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" t="s">
-        <v>172</v>
-      </c>
-      <c r="D149" t="s">
-        <v>226</v>
-      </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>463</v>
       </c>
       <c r="F149">
-        <v>243</v>
+        <v>966</v>
       </c>
       <c r="G149">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J149" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -12854,72 +12865,72 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N149">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O149">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P149">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q149" t="s">
+        <v>460</v>
+      </c>
+      <c r="R149" t="s">
+        <v>459</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B150" t="s">
+        <v>460</v>
+      </c>
+      <c r="C150" t="s">
+        <v>461</v>
+      </c>
+      <c r="D150" t="s">
+        <v>462</v>
+      </c>
+      <c r="E150" t="s">
         <v>463</v>
       </c>
-      <c r="R149" t="s">
-        <v>466</v>
-      </c>
-      <c r="S149">
-        <v>0</v>
-      </c>
-      <c r="T149">
-        <v>0</v>
-      </c>
-      <c r="U149">
-        <v>0</v>
-      </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24">
-      <c r="A150" s="2">
-        <v>45810</v>
-      </c>
-      <c r="B150" t="s">
-        <v>98</v>
-      </c>
-      <c r="C150" t="s">
-        <v>172</v>
-      </c>
-      <c r="D150" t="s">
-        <v>226</v>
-      </c>
-      <c r="E150" t="s">
-        <v>295</v>
-      </c>
       <c r="F150">
-        <v>243</v>
+        <v>966</v>
       </c>
       <c r="G150">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J150" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -12928,22 +12939,22 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N150">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O150">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P150">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q150" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="R150" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="S150">
         <v>0</v>

--- a/ExcelFiles/FFmpeg_Clang_Summary.xlsx
+++ b/ExcelFiles/FFmpeg_Clang_Summary.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muyeedahmed/Desktop/Gitcode/LLMVerification/ExcelFiles/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E677F3D-196F-934E-B0FC-29FC4207B3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="465">
   <si>
     <t>Commit Date</t>
   </si>
@@ -88,12 +82,15 @@
     <t>Semantic error</t>
   </si>
   <si>
+    <t>Null Dereference</t>
+  </si>
+  <si>
+    <t>Uninitialized Variable</t>
+  </si>
+  <si>
     <t>Uncategorized</t>
   </si>
   <si>
-    <t>Null Dereference</t>
-  </si>
-  <si>
     <t>2d1c0dea5f6b91bec7f5fa53ec050913d851e366</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>6f452ad1acadc50abc7d9b1b9d264e940a451ee7</t>
+  </si>
+  <si>
+    <t>c08d300481b8ebb846cd43a473988fdbc6793d1b</t>
   </si>
   <si>
     <t>dv: Fix small stack overread related to CVE-2011-3929 and CVE-2011-3936. Found with asan. Found-by: Mateusz "j00ru" Jurczyk and Gynvael Coldwind Signed-off-by: Alex Converse &lt;alex.converse@gmail.com&gt;</t>
@@ -558,6 +558,9 @@
     <t>fftools/textformat/avtextformat: Fix races when initializing formatters</t>
   </si>
   <si>
+    <t>avformat/avformat: also clear FFFormatContext packet queue when closing a muxer</t>
+  </si>
+  <si>
     <t>libavformat/dv.c</t>
   </si>
   <si>
@@ -717,6 +720,9 @@
     <t>fftools/textformat/avtextformat.c</t>
   </si>
   <si>
+    <t>libavformat/avformat.c</t>
+  </si>
+  <si>
     <t>dv_extract_audio</t>
   </si>
   <si>
@@ -919,6 +925,9 @@
   </si>
   <si>
     <t>formatters_register_all</t>
+  </si>
+  <si>
+    <t>avformat_free_context</t>
   </si>
   <si>
     <t>No Change (Recommended)</t>
@@ -1482,27 +1491,15 @@
   <si>
     <t>llm</t>
   </si>
-  <si>
-    <t>c08d300481b8ebb846cd43a473988fdbc6793d1b</t>
-  </si>
-  <si>
-    <t>avformat/avformat: also clear FFFormatContext packet queue when closing a muxer</t>
-  </si>
-  <si>
-    <t>libavformat/avformat.c</t>
-  </si>
-  <si>
-    <t>avformat_free_context</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1566,21 +1563,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1618,7 +1607,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1652,7 +1641,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1687,10 +1675,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1863,19 +1850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149:Q149"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1948,22 +1930,25 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="2">
         <v>40939</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F2">
         <v>539</v>
@@ -1975,10 +1960,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1999,10 +1984,10 @@
         <v>189</v>
       </c>
       <c r="Q2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="R2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -2022,22 +2007,25 @@
       <c r="X2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>40939</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F3">
         <v>539</v>
@@ -2049,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2073,10 +2061,10 @@
         <v>189</v>
       </c>
       <c r="Q3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="R3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2096,22 +2084,25 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="2">
         <v>40939</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F4">
         <v>540</v>
@@ -2123,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2147,10 +2138,10 @@
         <v>373</v>
       </c>
       <c r="Q4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="R4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -2170,22 +2161,25 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>40939</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>540</v>
@@ -2197,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2221,10 +2215,10 @@
         <v>373</v>
       </c>
       <c r="Q5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="R5" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2244,22 +2238,25 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>41181</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F6">
         <v>645</v>
@@ -2271,10 +2268,10 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2295,10 +2292,10 @@
         <v>533</v>
       </c>
       <c r="Q6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="R6" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -2318,22 +2315,25 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>41181</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F7">
         <v>645</v>
@@ -2345,10 +2345,10 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>533</v>
       </c>
       <c r="Q7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="R7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2392,22 +2392,25 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="2">
         <v>41618</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F8">
         <v>1785</v>
@@ -2419,10 +2422,10 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2443,10 +2446,10 @@
         <v>1435</v>
       </c>
       <c r="Q8" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="R8" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2466,22 +2469,25 @@
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="2">
         <v>41618</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F9">
         <v>1785</v>
@@ -2493,10 +2499,10 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2517,10 +2523,10 @@
         <v>1435</v>
       </c>
       <c r="Q9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="R9" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2540,22 +2546,25 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>41992</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F10">
         <v>327</v>
@@ -2567,16 +2576,16 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M10">
         <v>35</v>
@@ -2591,10 +2600,10 @@
         <v>157</v>
       </c>
       <c r="Q10" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="R10" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2614,22 +2623,25 @@
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="2">
         <v>41992</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F11">
         <v>327</v>
@@ -2641,16 +2653,16 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K11" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M11">
         <v>35</v>
@@ -2665,10 +2677,10 @@
         <v>157</v>
       </c>
       <c r="Q11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="R11" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2688,22 +2700,25 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="2">
         <v>42059</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F12">
         <v>2394</v>
@@ -2715,10 +2730,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J12" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2762,22 +2777,25 @@
       <c r="X12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="2">
         <v>42059</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F13">
         <v>401</v>
@@ -2789,10 +2807,10 @@
         <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2813,10 +2831,10 @@
         <v>391</v>
       </c>
       <c r="Q13" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="R13" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2836,22 +2854,25 @@
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="2">
         <v>42059</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F14">
         <v>401</v>
@@ -2863,10 +2884,10 @@
         <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J14" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2887,10 +2908,10 @@
         <v>391</v>
       </c>
       <c r="Q14" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="R14" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2910,22 +2931,25 @@
       <c r="X14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="2">
         <v>42059</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F15">
         <v>2394</v>
@@ -2937,10 +2961,10 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J15" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2961,10 +2985,10 @@
         <v>329</v>
       </c>
       <c r="Q15" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="R15" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2984,22 +3008,25 @@
       <c r="X15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>42059</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F16">
         <v>2394</v>
@@ -3011,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J16" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -3035,10 +3062,10 @@
         <v>329</v>
       </c>
       <c r="Q16" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="R16" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -3058,22 +3085,25 @@
       <c r="X16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="2">
         <v>42063</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F17">
         <v>65</v>
@@ -3085,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J17" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3109,10 +3139,10 @@
         <v>65</v>
       </c>
       <c r="Q17" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="R17" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3132,22 +3162,25 @@
       <c r="X17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="2">
         <v>42063</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F18">
         <v>65</v>
@@ -3159,10 +3192,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J18" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3183,10 +3216,10 @@
         <v>65</v>
       </c>
       <c r="Q18" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="R18" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3206,22 +3239,25 @@
       <c r="X18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>42063</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F19">
         <v>130</v>
@@ -3233,10 +3269,10 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J19" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -3257,10 +3293,10 @@
         <v>128</v>
       </c>
       <c r="Q19" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="R19" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3280,22 +3316,25 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="2">
         <v>42063</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F20">
         <v>130</v>
@@ -3307,10 +3346,10 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J20" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3331,10 +3370,10 @@
         <v>128</v>
       </c>
       <c r="Q20" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="R20" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -3354,22 +3393,25 @@
       <c r="X20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="2">
         <v>42065</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F21">
         <v>958</v>
@@ -3381,10 +3423,10 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3405,10 +3447,10 @@
         <v>528</v>
       </c>
       <c r="Q21" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="R21" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3428,22 +3470,25 @@
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="2">
         <v>42065</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F22">
         <v>958</v>
@@ -3455,10 +3500,10 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3479,10 +3524,10 @@
         <v>528</v>
       </c>
       <c r="Q22" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="R22" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3502,22 +3547,25 @@
       <c r="X22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="2">
         <v>42065</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F23">
         <v>3528</v>
@@ -3529,10 +3577,10 @@
         <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J23" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3553,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="R23" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3571,27 +3619,30 @@
         <v>0</v>
       </c>
       <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
         <v>1</v>
       </c>
-      <c r="X23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="2">
         <v>42065</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F24">
         <v>3528</v>
@@ -3603,10 +3654,10 @@
         <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J24" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3627,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="R24" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -3645,27 +3696,30 @@
         <v>0</v>
       </c>
       <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
         <v>1</v>
       </c>
-      <c r="X24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="2">
         <v>42067</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F25">
         <v>295</v>
@@ -3677,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J25" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3701,10 +3755,10 @@
         <v>282</v>
       </c>
       <c r="Q25" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="R25" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3724,22 +3778,25 @@
       <c r="X25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="2">
         <v>42067</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F26">
         <v>295</v>
@@ -3751,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J26" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3775,10 +3832,10 @@
         <v>282</v>
       </c>
       <c r="Q26" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="R26" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3798,22 +3855,25 @@
       <c r="X26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="2">
         <v>42067</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F27">
         <v>200</v>
@@ -3825,10 +3885,10 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J27" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3849,10 +3909,10 @@
         <v>190</v>
       </c>
       <c r="Q27" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="R27" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3872,22 +3932,25 @@
       <c r="X27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="2">
         <v>42067</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F28">
         <v>200</v>
@@ -3899,10 +3962,10 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J28" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3923,10 +3986,10 @@
         <v>190</v>
       </c>
       <c r="Q28" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="R28" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3946,22 +4009,25 @@
       <c r="X28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="2">
         <v>42068</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F29">
         <v>293</v>
@@ -3973,10 +4039,10 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J29" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3997,10 +4063,10 @@
         <v>275</v>
       </c>
       <c r="Q29" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="R29" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4020,22 +4086,25 @@
       <c r="X29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="2">
         <v>42068</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F30">
         <v>293</v>
@@ -4047,10 +4116,10 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J30" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -4071,10 +4140,10 @@
         <v>275</v>
       </c>
       <c r="Q30" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="R30" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -4094,22 +4163,25 @@
       <c r="X30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="2">
         <v>42068</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F31">
         <v>1476</v>
@@ -4121,10 +4193,10 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -4145,10 +4217,10 @@
         <v>774</v>
       </c>
       <c r="Q31" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="R31" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4168,22 +4240,25 @@
       <c r="X31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="2">
         <v>42068</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F32">
         <v>1476</v>
@@ -4195,10 +4270,10 @@
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4219,10 +4294,10 @@
         <v>774</v>
       </c>
       <c r="Q32" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="R32" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4242,22 +4317,25 @@
       <c r="X32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="2">
         <v>42068</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F33">
         <v>802</v>
@@ -4269,10 +4347,10 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4293,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="R33" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4316,22 +4394,25 @@
       <c r="X33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="2">
         <v>42068</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F34">
         <v>802</v>
@@ -4343,10 +4424,10 @@
         <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -4367,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="R34" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4390,22 +4471,25 @@
       <c r="X34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="2">
         <v>42069</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F35">
         <v>985</v>
@@ -4417,10 +4501,10 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4441,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="R35" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4464,22 +4548,25 @@
       <c r="X35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="2">
         <v>42069</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F36">
         <v>985</v>
@@ -4491,10 +4578,10 @@
         <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4515,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="R36" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4538,22 +4625,25 @@
       <c r="X36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="2">
         <v>42069</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F37">
         <v>958</v>
@@ -4565,10 +4655,10 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4589,10 +4679,10 @@
         <v>666</v>
       </c>
       <c r="Q37" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="R37" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4612,22 +4702,25 @@
       <c r="X37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="2">
         <v>42069</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F38">
         <v>958</v>
@@ -4639,10 +4732,10 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4663,10 +4756,10 @@
         <v>666</v>
       </c>
       <c r="Q38" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="R38" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4686,22 +4779,25 @@
       <c r="X38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="2">
         <v>42071</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F39">
         <v>1777</v>
@@ -4713,10 +4809,10 @@
         <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4737,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="R39" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4755,27 +4851,30 @@
         <v>0</v>
       </c>
       <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>2</v>
       </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="2">
         <v>42071</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F40">
         <v>1777</v>
@@ -4787,10 +4886,10 @@
         <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4811,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="R40" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -4834,22 +4933,25 @@
       <c r="X40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="2">
         <v>42071</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F41">
         <v>979</v>
@@ -4861,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J41" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4885,10 +4987,10 @@
         <v>351</v>
       </c>
       <c r="Q41" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="R41" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -4908,22 +5010,25 @@
       <c r="X41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="2">
         <v>42071</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F42">
         <v>979</v>
@@ -4935,10 +5040,10 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4959,10 +5064,10 @@
         <v>351</v>
       </c>
       <c r="Q42" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="R42" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4982,22 +5087,25 @@
       <c r="X42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="2">
         <v>42071</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F43">
         <v>1779</v>
@@ -5009,10 +5117,10 @@
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -5033,10 +5141,10 @@
         <v>1342</v>
       </c>
       <c r="Q43" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="R43" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5056,22 +5164,25 @@
       <c r="X43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="2">
         <v>42071</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F44">
         <v>1779</v>
@@ -5083,10 +5194,10 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J44" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5107,10 +5218,10 @@
         <v>1342</v>
       </c>
       <c r="Q44" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="R44" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5130,22 +5241,25 @@
       <c r="X44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="2">
         <v>42071</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F45">
         <v>981</v>
@@ -5157,10 +5271,10 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J45" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -5181,10 +5295,10 @@
         <v>676</v>
       </c>
       <c r="Q45" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="R45" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5199,27 +5313,30 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="2">
         <v>42071</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F46">
         <v>981</v>
@@ -5231,10 +5348,10 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J46" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -5255,10 +5372,10 @@
         <v>676</v>
       </c>
       <c r="Q46" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="R46" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5273,27 +5390,30 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="2">
         <v>42072</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F47">
         <v>566</v>
@@ -5305,10 +5425,10 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J47" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5329,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="R47" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -5347,27 +5467,30 @@
         <v>0</v>
       </c>
       <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
         <v>1</v>
       </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="2">
         <v>42072</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F48">
         <v>566</v>
@@ -5379,10 +5502,10 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J48" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5403,10 +5526,10 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="R48" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -5421,27 +5544,30 @@
         <v>0</v>
       </c>
       <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
         <v>1</v>
       </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="2">
         <v>42387</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F49">
         <v>362</v>
@@ -5453,10 +5579,10 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J49" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5477,10 +5603,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="R49" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -5500,22 +5626,25 @@
       <c r="X49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="2">
         <v>42387</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F50">
         <v>362</v>
@@ -5527,10 +5656,10 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J50" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5551,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="R50" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -5574,22 +5703,25 @@
       <c r="X50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="2">
         <v>43757</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F51">
         <v>172</v>
@@ -5601,10 +5733,10 @@
         <v>8</v>
       </c>
       <c r="I51" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J51" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5625,10 +5757,10 @@
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="R51" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -5648,22 +5780,25 @@
       <c r="X51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="2">
         <v>43757</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F52">
         <v>172</v>
@@ -5675,10 +5810,10 @@
         <v>8</v>
       </c>
       <c r="I52" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J52" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5699,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="R52" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -5722,22 +5857,25 @@
       <c r="X52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="2">
         <v>43757</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F53">
         <v>1066</v>
@@ -5749,10 +5887,10 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5773,10 +5911,10 @@
         <v>961</v>
       </c>
       <c r="Q53" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="R53" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -5796,22 +5934,25 @@
       <c r="X53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="2">
         <v>43757</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F54">
         <v>1066</v>
@@ -5823,10 +5964,10 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J54" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5847,10 +5988,10 @@
         <v>961</v>
       </c>
       <c r="Q54" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="R54" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -5870,22 +6011,25 @@
       <c r="X54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="2">
         <v>44345</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F55">
         <v>7382</v>
@@ -5897,10 +6041,10 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J55" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5921,10 +6065,10 @@
         <v>2283</v>
       </c>
       <c r="Q55" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="R55" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S55">
         <v>3</v>
@@ -5944,22 +6088,25 @@
       <c r="X55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="2">
         <v>44345</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F56">
         <v>7382</v>
@@ -5971,10 +6118,10 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J56" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5995,10 +6142,10 @@
         <v>2283</v>
       </c>
       <c r="Q56" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="R56" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S56">
         <v>3</v>
@@ -6018,22 +6165,25 @@
       <c r="X56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="2">
         <v>44617</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E57" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F57">
         <v>389</v>
@@ -6045,10 +6195,10 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J57" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -6069,10 +6219,10 @@
         <v>353</v>
       </c>
       <c r="Q57" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="R57" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -6092,22 +6242,25 @@
       <c r="X57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="2">
         <v>44617</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F58">
         <v>389</v>
@@ -6119,10 +6272,10 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J58" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6143,10 +6296,10 @@
         <v>353</v>
       </c>
       <c r="Q58" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="R58" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -6166,22 +6319,25 @@
       <c r="X58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="2">
         <v>44641</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F59">
         <v>2135</v>
@@ -6193,10 +6349,10 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J59" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -6217,10 +6373,10 @@
         <v>590</v>
       </c>
       <c r="Q59" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="R59" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -6240,22 +6396,25 @@
       <c r="X59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="2">
         <v>44641</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F60">
         <v>2135</v>
@@ -6267,10 +6426,10 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J60" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -6291,10 +6450,10 @@
         <v>590</v>
       </c>
       <c r="Q60" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="R60" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -6314,22 +6473,25 @@
       <c r="X60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="2">
         <v>44642</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E61" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F61">
         <v>7516</v>
@@ -6341,10 +6503,10 @@
         <v>5</v>
       </c>
       <c r="I61" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J61" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -6365,10 +6527,10 @@
         <v>5657</v>
       </c>
       <c r="Q61" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="R61" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -6388,22 +6550,25 @@
       <c r="X61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="2">
         <v>44642</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F62">
         <v>7516</v>
@@ -6415,10 +6580,10 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J62" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -6439,10 +6604,10 @@
         <v>5657</v>
       </c>
       <c r="Q62" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="R62" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -6462,22 +6627,25 @@
       <c r="X62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="2">
         <v>44660</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F63">
         <v>3449</v>
@@ -6489,10 +6657,10 @@
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J63" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6513,10 +6681,10 @@
         <v>2746</v>
       </c>
       <c r="Q63" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="R63" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -6536,22 +6704,25 @@
       <c r="X63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="2">
         <v>44660</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F64">
         <v>3449</v>
@@ -6563,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J64" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -6587,10 +6758,10 @@
         <v>2746</v>
       </c>
       <c r="Q64" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="R64" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -6610,22 +6781,25 @@
       <c r="X64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="2">
         <v>44680</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F65">
         <v>482</v>
@@ -6637,10 +6811,10 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J65" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -6661,10 +6835,10 @@
         <v>444</v>
       </c>
       <c r="Q65" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="R65" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -6684,22 +6858,25 @@
       <c r="X65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="2">
         <v>44680</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F66">
         <v>482</v>
@@ -6711,10 +6888,10 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J66" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -6735,10 +6912,10 @@
         <v>444</v>
       </c>
       <c r="Q66" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="R66" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -6758,22 +6935,25 @@
       <c r="X66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="2">
         <v>45204</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E67" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F67">
         <v>1509</v>
@@ -6785,10 +6965,10 @@
         <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J67" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6809,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="R67" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S67">
         <v>2</v>
@@ -6832,22 +7012,25 @@
       <c r="X67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="2">
         <v>45204</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E68" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F68">
         <v>1509</v>
@@ -6859,10 +7042,10 @@
         <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J68" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -6883,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="R68" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S68">
         <v>2</v>
@@ -6906,22 +7089,25 @@
       <c r="X68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="2">
         <v>45378</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F69">
         <v>971</v>
@@ -6933,10 +7119,10 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J69" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6957,10 +7143,10 @@
         <v>395</v>
       </c>
       <c r="Q69" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="R69" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S69">
         <v>2</v>
@@ -6975,27 +7161,30 @@
         <v>0</v>
       </c>
       <c r="W69">
+        <v>6</v>
+      </c>
+      <c r="X69">
         <v>2</v>
       </c>
-      <c r="X69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="2">
         <v>45378</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F70">
         <v>971</v>
@@ -7007,10 +7196,10 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J70" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -7031,10 +7220,10 @@
         <v>395</v>
       </c>
       <c r="Q70" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="R70" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S70">
         <v>2</v>
@@ -7049,27 +7238,30 @@
         <v>2</v>
       </c>
       <c r="W70">
+        <v>6</v>
+      </c>
+      <c r="X70">
         <v>2</v>
       </c>
-      <c r="X70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="2">
         <v>45383</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F71">
         <v>10299</v>
@@ -7081,10 +7273,10 @@
         <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J71" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -7105,10 +7297,10 @@
         <v>9455</v>
       </c>
       <c r="Q71" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="R71" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -7128,22 +7320,25 @@
       <c r="X71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="2">
         <v>45383</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F72">
         <v>10299</v>
@@ -7155,10 +7350,10 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J72" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -7179,10 +7374,10 @@
         <v>9455</v>
       </c>
       <c r="Q72" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="R72" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S72">
         <v>2</v>
@@ -7202,22 +7397,25 @@
       <c r="X72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="2">
         <v>45384</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F73">
         <v>10301</v>
@@ -7229,10 +7427,10 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J73" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -7253,10 +7451,10 @@
         <v>5059</v>
       </c>
       <c r="Q73" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="R73" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -7276,22 +7474,25 @@
       <c r="X73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="2">
         <v>45384</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F74">
         <v>10301</v>
@@ -7303,10 +7504,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J74" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -7327,10 +7528,10 @@
         <v>5059</v>
       </c>
       <c r="Q74" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="R74" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -7350,22 +7551,25 @@
       <c r="X74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="2">
         <v>45384</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F75">
         <v>454</v>
@@ -7377,10 +7581,10 @@
         <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J75" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -7401,10 +7605,10 @@
         <v>381</v>
       </c>
       <c r="Q75" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="R75" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -7424,22 +7628,25 @@
       <c r="X75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="2">
         <v>45384</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F76">
         <v>454</v>
@@ -7451,10 +7658,10 @@
         <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J76" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -7475,10 +7682,10 @@
         <v>381</v>
       </c>
       <c r="Q76" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="R76" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S76">
         <v>3</v>
@@ -7490,30 +7697,33 @@
         <v>1</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="2">
         <v>45384</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E77" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F77">
         <v>10302</v>
@@ -7525,10 +7735,10 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J77" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -7549,10 +7759,10 @@
         <v>5060</v>
       </c>
       <c r="Q77" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="R77" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -7572,22 +7782,25 @@
       <c r="X77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="2">
         <v>45384</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F78">
         <v>10302</v>
@@ -7599,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J78" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7623,10 +7836,10 @@
         <v>5060</v>
       </c>
       <c r="Q78" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="R78" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -7646,22 +7859,25 @@
       <c r="X78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="2">
         <v>45384</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F79">
         <v>10300</v>
@@ -7673,10 +7889,10 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J79" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -7697,10 +7913,10 @@
         <v>5058</v>
       </c>
       <c r="Q79" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="R79" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -7720,22 +7936,25 @@
       <c r="X79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="2">
         <v>45384</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F80">
         <v>10300</v>
@@ -7747,10 +7966,10 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J80" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -7771,10 +7990,10 @@
         <v>5058</v>
       </c>
       <c r="Q80" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="R80" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -7794,22 +8013,25 @@
       <c r="X80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="2">
         <v>45384</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F81">
         <v>10302</v>
@@ -7821,10 +8043,10 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J81" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -7845,10 +8067,10 @@
         <v>5061</v>
       </c>
       <c r="Q81" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="R81" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -7860,30 +8082,33 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="2">
         <v>45384</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F82">
         <v>10302</v>
@@ -7895,10 +8120,10 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J82" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -7919,10 +8144,10 @@
         <v>5061</v>
       </c>
       <c r="Q82" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="R82" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -7942,22 +8167,25 @@
       <c r="X82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="2">
         <v>45384</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E83" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F83">
         <v>1183</v>
@@ -7969,10 +8197,10 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J83" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -7993,10 +8221,10 @@
         <v>303</v>
       </c>
       <c r="Q83" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="R83" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -8016,22 +8244,25 @@
       <c r="X83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="2">
         <v>45384</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F84">
         <v>1183</v>
@@ -8043,10 +8274,10 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J84" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -8067,10 +8298,10 @@
         <v>303</v>
       </c>
       <c r="Q84" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="R84" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -8090,22 +8321,25 @@
       <c r="X84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" s="2">
         <v>45384</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F85">
         <v>10299</v>
@@ -8117,10 +8351,10 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J85" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -8141,10 +8375,10 @@
         <v>8890</v>
       </c>
       <c r="Q85" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="R85" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S85">
         <v>2</v>
@@ -8164,22 +8398,25 @@
       <c r="X85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="2">
         <v>45384</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F86">
         <v>10299</v>
@@ -8191,10 +8428,10 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J86" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -8215,10 +8452,10 @@
         <v>8890</v>
       </c>
       <c r="Q86" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="R86" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -8238,22 +8475,25 @@
       <c r="X86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="2">
         <v>45389</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E87" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F87">
         <v>1360</v>
@@ -8265,10 +8505,10 @@
         <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J87" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -8289,10 +8529,10 @@
         <v>324</v>
       </c>
       <c r="Q87" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="R87" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -8312,22 +8552,25 @@
       <c r="X87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="2">
         <v>45389</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F88">
         <v>1360</v>
@@ -8339,10 +8582,10 @@
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J88" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -8363,10 +8606,10 @@
         <v>324</v>
       </c>
       <c r="Q88" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="R88" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -8386,22 +8629,25 @@
       <c r="X88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="2">
         <v>45409</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F89">
         <v>10319</v>
@@ -8413,10 +8659,10 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J89" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -8437,10 +8683,10 @@
         <v>9478</v>
       </c>
       <c r="Q89" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="R89" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S89">
         <v>10</v>
@@ -8452,30 +8698,33 @@
         <v>0</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="2">
         <v>45409</v>
       </c>
       <c r="B90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F90">
         <v>10319</v>
@@ -8487,10 +8736,10 @@
         <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J90" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -8511,10 +8760,10 @@
         <v>9478</v>
       </c>
       <c r="Q90" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="R90" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -8534,22 +8783,25 @@
       <c r="X90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="2">
         <v>45658</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F91">
         <v>288</v>
@@ -8561,10 +8813,10 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J91" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -8585,10 +8837,10 @@
         <v>167</v>
       </c>
       <c r="Q91" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="R91" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -8608,22 +8860,25 @@
       <c r="X91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="2">
         <v>45658</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F92">
         <v>288</v>
@@ -8635,10 +8890,10 @@
         <v>5</v>
       </c>
       <c r="I92" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J92" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -8659,10 +8914,10 @@
         <v>167</v>
       </c>
       <c r="Q92" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="R92" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -8682,22 +8937,25 @@
       <c r="X92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="2">
         <v>45660</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F93">
         <v>1183</v>
@@ -8709,10 +8967,10 @@
         <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J93" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -8733,10 +8991,10 @@
         <v>384</v>
       </c>
       <c r="Q93" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="R93" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -8756,22 +9014,25 @@
       <c r="X93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="2">
         <v>45660</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F94">
         <v>1183</v>
@@ -8783,10 +9044,10 @@
         <v>9</v>
       </c>
       <c r="I94" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J94" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -8807,10 +9068,10 @@
         <v>384</v>
       </c>
       <c r="Q94" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="R94" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -8830,22 +9091,25 @@
       <c r="X94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="2">
         <v>45660</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E95" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F95">
         <v>927</v>
@@ -8857,7 +9121,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -8881,10 +9145,10 @@
         <v>835</v>
       </c>
       <c r="Q95" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="R95" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -8899,27 +9163,30 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="2">
         <v>45660</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F96">
         <v>927</v>
@@ -8931,7 +9198,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -8955,10 +9222,10 @@
         <v>835</v>
       </c>
       <c r="Q96" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="R96" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -8978,22 +9245,25 @@
       <c r="X96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="2">
         <v>45662</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D97" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F97">
         <v>927</v>
@@ -9005,10 +9275,10 @@
         <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J97" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -9029,10 +9299,10 @@
         <v>835</v>
       </c>
       <c r="Q97" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="R97" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -9047,27 +9317,30 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" s="2">
         <v>45662</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F98">
         <v>927</v>
@@ -9079,10 +9352,10 @@
         <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -9103,10 +9376,10 @@
         <v>835</v>
       </c>
       <c r="Q98" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="R98" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -9121,27 +9394,30 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" s="2">
         <v>45690</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F99">
         <v>2665</v>
@@ -9153,10 +9429,10 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J99" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -9177,10 +9453,10 @@
         <v>767</v>
       </c>
       <c r="Q99" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="R99" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -9200,22 +9476,25 @@
       <c r="X99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" s="2">
         <v>45690</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F100">
         <v>2665</v>
@@ -9227,10 +9506,10 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J100" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -9251,10 +9530,10 @@
         <v>767</v>
       </c>
       <c r="Q100" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="R100" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -9266,30 +9545,33 @@
         <v>0</v>
       </c>
       <c r="V100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" s="2">
         <v>45691</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E101" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F101">
         <v>1292</v>
@@ -9301,10 +9583,10 @@
         <v>10</v>
       </c>
       <c r="I101" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J101" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -9325,10 +9607,10 @@
         <v>714</v>
       </c>
       <c r="Q101" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="R101" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -9348,22 +9630,25 @@
       <c r="X101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" s="2">
         <v>45691</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E102" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F102">
         <v>1292</v>
@@ -9375,10 +9660,10 @@
         <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J102" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -9399,10 +9684,10 @@
         <v>714</v>
       </c>
       <c r="Q102" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="R102" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S102">
         <v>0</v>
@@ -9422,22 +9707,25 @@
       <c r="X102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" s="2">
         <v>45707</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E103" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F103">
         <v>1143</v>
@@ -9449,7 +9737,7 @@
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -9473,10 +9761,10 @@
         <v>791</v>
       </c>
       <c r="Q103" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="R103" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -9496,22 +9784,25 @@
       <c r="X103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" s="2">
         <v>45707</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E104" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F104">
         <v>1143</v>
@@ -9523,7 +9814,7 @@
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -9547,10 +9838,10 @@
         <v>791</v>
       </c>
       <c r="Q104" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="R104" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -9570,22 +9861,25 @@
       <c r="X104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" s="2">
         <v>45714</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E105" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F105">
         <v>3199</v>
@@ -9597,10 +9891,10 @@
         <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J105" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -9621,10 +9915,10 @@
         <v>3134</v>
       </c>
       <c r="Q105" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="R105" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -9644,22 +9938,25 @@
       <c r="X105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="2">
         <v>45714</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D106" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F106">
         <v>3199</v>
@@ -9671,10 +9968,10 @@
         <v>7</v>
       </c>
       <c r="I106" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J106" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -9695,10 +9992,10 @@
         <v>3134</v>
       </c>
       <c r="Q106" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="R106" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -9718,22 +10015,25 @@
       <c r="X106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" s="2">
         <v>45719</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F107">
         <v>3200</v>
@@ -9745,10 +10045,10 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J107" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -9769,10 +10069,10 @@
         <v>2074</v>
       </c>
       <c r="Q107" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="R107" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -9792,22 +10092,25 @@
       <c r="X107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" s="2">
         <v>45719</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D108" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E108" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F108">
         <v>3200</v>
@@ -9819,10 +10122,10 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J108" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -9843,10 +10146,10 @@
         <v>2074</v>
       </c>
       <c r="Q108" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="R108" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -9866,22 +10169,25 @@
       <c r="X108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" s="2">
         <v>45733</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D109" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E109" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F109">
         <v>3076</v>
@@ -9893,10 +10199,10 @@
         <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J109" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -9917,10 +10223,10 @@
         <v>1631</v>
       </c>
       <c r="Q109" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="R109" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -9935,27 +10241,30 @@
         <v>0</v>
       </c>
       <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
         <v>1</v>
       </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" s="2">
         <v>45733</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D110" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F110">
         <v>3076</v>
@@ -9967,10 +10276,10 @@
         <v>7</v>
       </c>
       <c r="I110" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J110" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -9991,10 +10300,10 @@
         <v>1631</v>
       </c>
       <c r="Q110" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="R110" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -10009,27 +10318,30 @@
         <v>0</v>
       </c>
       <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
         <v>1</v>
       </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" s="2">
         <v>45741</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D111" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E111" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F111">
         <v>967</v>
@@ -10041,10 +10353,10 @@
         <v>4</v>
       </c>
       <c r="I111" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J111" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -10065,10 +10377,10 @@
         <v>345</v>
       </c>
       <c r="Q111" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="R111" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S111">
         <v>0</v>
@@ -10088,22 +10400,25 @@
       <c r="X111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" s="2">
         <v>45741</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D112" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F112">
         <v>967</v>
@@ -10115,10 +10430,10 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J112" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -10139,10 +10454,10 @@
         <v>345</v>
       </c>
       <c r="Q112" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="R112" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -10154,30 +10469,33 @@
         <v>0</v>
       </c>
       <c r="V112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" s="2">
         <v>45752</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F113">
         <v>2223</v>
@@ -10189,10 +10507,10 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J113" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -10213,10 +10531,10 @@
         <v>212</v>
       </c>
       <c r="Q113" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="R113" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -10236,22 +10554,25 @@
       <c r="X113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" s="2">
         <v>45752</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D114" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E114" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F114">
         <v>2223</v>
@@ -10263,10 +10584,10 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J114" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -10287,10 +10608,10 @@
         <v>212</v>
       </c>
       <c r="Q114" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="R114" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -10310,22 +10631,25 @@
       <c r="X114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" s="2">
         <v>45754</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E115" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F115">
         <v>1932</v>
@@ -10337,10 +10661,10 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J115" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -10361,10 +10685,10 @@
         <v>962</v>
       </c>
       <c r="Q115" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="R115" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -10384,22 +10708,25 @@
       <c r="X115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" s="2">
         <v>45754</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D116" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E116" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F116">
         <v>1932</v>
@@ -10411,10 +10738,10 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J116" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -10435,10 +10762,10 @@
         <v>962</v>
       </c>
       <c r="Q116" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="R116" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -10458,22 +10785,25 @@
       <c r="X116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" s="2">
         <v>45782</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F117">
         <v>4230</v>
@@ -10485,10 +10815,10 @@
         <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J117" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -10509,10 +10839,10 @@
         <v>1190</v>
       </c>
       <c r="Q117" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="R117" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -10532,22 +10862,25 @@
       <c r="X117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" s="2">
         <v>45782</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E118" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F118">
         <v>4230</v>
@@ -10559,10 +10892,10 @@
         <v>12</v>
       </c>
       <c r="I118" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J118" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -10583,10 +10916,10 @@
         <v>1190</v>
       </c>
       <c r="Q118" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="R118" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -10606,22 +10939,25 @@
       <c r="X118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" s="2">
         <v>45791</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D119" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F119">
         <v>160</v>
@@ -10633,10 +10969,10 @@
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J119" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -10657,10 +10993,10 @@
         <v>139</v>
       </c>
       <c r="Q119" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="R119" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -10680,22 +11016,25 @@
       <c r="X119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" s="2">
         <v>45791</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D120" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E120" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F120">
         <v>160</v>
@@ -10707,10 +11046,10 @@
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J120" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -10731,10 +11070,10 @@
         <v>139</v>
       </c>
       <c r="Q120" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="R120" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -10754,22 +11093,25 @@
       <c r="X120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" s="2">
         <v>45795</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E121" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F121">
         <v>1033</v>
@@ -10781,10 +11123,10 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J121" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -10805,10 +11147,10 @@
         <v>362</v>
       </c>
       <c r="Q121" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="R121" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -10828,22 +11170,25 @@
       <c r="X121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" s="2">
         <v>45795</v>
       </c>
       <c r="B122" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D122" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F122">
         <v>1033</v>
@@ -10855,10 +11200,10 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J122" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -10879,10 +11224,10 @@
         <v>362</v>
       </c>
       <c r="Q122" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="R122" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -10902,22 +11247,25 @@
       <c r="X122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" s="2">
         <v>45800</v>
       </c>
       <c r="B123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D123" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E123" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F123">
         <v>2705</v>
@@ -10929,10 +11277,10 @@
         <v>5</v>
       </c>
       <c r="I123" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J123" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -10953,10 +11301,10 @@
         <v>883</v>
       </c>
       <c r="Q123" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="R123" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -10976,22 +11324,25 @@
       <c r="X123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" s="2">
         <v>45800</v>
       </c>
       <c r="B124" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E124" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F124">
         <v>2705</v>
@@ -11003,10 +11354,10 @@
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J124" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -11027,10 +11378,10 @@
         <v>883</v>
       </c>
       <c r="Q124" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="R124" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -11050,22 +11401,25 @@
       <c r="X124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" s="2">
         <v>45800</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F125">
         <v>2706</v>
@@ -11077,7 +11431,7 @@
         <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -11101,10 +11455,10 @@
         <v>812</v>
       </c>
       <c r="Q125" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="R125" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -11119,27 +11473,30 @@
         <v>0</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" s="2">
         <v>45800</v>
       </c>
       <c r="B126" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D126" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E126" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F126">
         <v>2706</v>
@@ -11151,7 +11508,7 @@
         <v>8</v>
       </c>
       <c r="I126" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J126" t="s">
         <v>19</v>
@@ -11175,10 +11532,10 @@
         <v>812</v>
       </c>
       <c r="Q126" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="R126" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -11198,22 +11555,25 @@
       <c r="X126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" s="2">
         <v>45801</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D127" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E127" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F127">
         <v>1247</v>
@@ -11225,10 +11585,10 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J127" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -11249,10 +11609,10 @@
         <v>450</v>
       </c>
       <c r="Q127" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="R127" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -11272,22 +11632,25 @@
       <c r="X127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" s="2">
         <v>45801</v>
       </c>
       <c r="B128" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E128" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F128">
         <v>1247</v>
@@ -11299,10 +11662,10 @@
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J128" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -11323,10 +11686,10 @@
         <v>450</v>
       </c>
       <c r="Q128" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="R128" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -11346,22 +11709,25 @@
       <c r="X128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" s="2">
         <v>45805</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C129" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D129" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F129">
         <v>1036</v>
@@ -11373,10 +11739,10 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J129" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -11397,10 +11763,10 @@
         <v>362</v>
       </c>
       <c r="Q129" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="R129" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -11420,22 +11786,25 @@
       <c r="X129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" s="2">
         <v>45805</v>
       </c>
       <c r="B130" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D130" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E130" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F130">
         <v>1036</v>
@@ -11447,10 +11816,10 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J130" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -11471,10 +11840,10 @@
         <v>362</v>
       </c>
       <c r="Q130" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="R130" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -11494,22 +11863,25 @@
       <c r="X130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" s="2">
         <v>45807</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C131" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D131" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E131" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F131">
         <v>944</v>
@@ -11521,10 +11893,10 @@
         <v>37</v>
       </c>
       <c r="I131" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J131" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -11545,10 +11917,10 @@
         <v>259</v>
       </c>
       <c r="Q131" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="R131" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S131">
         <v>0</v>
@@ -11568,22 +11940,25 @@
       <c r="X131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" s="2">
         <v>45807</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D132" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E132" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F132">
         <v>944</v>
@@ -11595,10 +11970,10 @@
         <v>37</v>
       </c>
       <c r="I132" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J132" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -11619,10 +11994,10 @@
         <v>259</v>
       </c>
       <c r="Q132" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="R132" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -11642,22 +12017,25 @@
       <c r="X132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" s="2">
         <v>45807</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D133" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E133" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F133">
         <v>942</v>
@@ -11669,10 +12047,10 @@
         <v>4</v>
       </c>
       <c r="I133" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J133" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -11693,10 +12071,10 @@
         <v>248</v>
       </c>
       <c r="Q133" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="R133" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -11716,22 +12094,25 @@
       <c r="X133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" s="2">
         <v>45807</v>
       </c>
       <c r="B134" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C134" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D134" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E134" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F134">
         <v>942</v>
@@ -11743,10 +12124,10 @@
         <v>4</v>
       </c>
       <c r="I134" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J134" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -11767,10 +12148,10 @@
         <v>248</v>
       </c>
       <c r="Q134" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="R134" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -11790,22 +12171,25 @@
       <c r="X134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" s="2">
         <v>45808</v>
       </c>
       <c r="B135" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C135" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E135" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F135">
         <v>3087</v>
@@ -11817,10 +12201,10 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J135" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -11841,10 +12225,10 @@
         <v>391</v>
       </c>
       <c r="Q135" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="R135" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S135">
         <v>0</v>
@@ -11864,22 +12248,25 @@
       <c r="X135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" s="2">
         <v>45808</v>
       </c>
       <c r="B136" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D136" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F136">
         <v>3087</v>
@@ -11891,10 +12278,10 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J136" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -11915,10 +12302,10 @@
         <v>391</v>
       </c>
       <c r="Q136" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="R136" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S136">
         <v>2</v>
@@ -11938,22 +12325,25 @@
       <c r="X136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" s="2">
         <v>45808</v>
       </c>
       <c r="B137" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D137" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E137" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F137">
         <v>121</v>
@@ -11965,16 +12355,16 @@
         <v>66</v>
       </c>
       <c r="I137" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J137" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K137" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L137" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -11989,10 +12379,10 @@
         <v>0</v>
       </c>
       <c r="Q137" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="R137" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -12012,22 +12402,25 @@
       <c r="X137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" s="2">
         <v>45808</v>
       </c>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C138" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D138" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E138" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F138">
         <v>121</v>
@@ -12039,16 +12432,16 @@
         <v>66</v>
       </c>
       <c r="I138" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J138" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K138" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L138" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -12063,10 +12456,10 @@
         <v>0</v>
       </c>
       <c r="Q138" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="R138" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S138">
         <v>0</v>
@@ -12086,22 +12479,25 @@
       <c r="X138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" s="2">
         <v>45808</v>
       </c>
       <c r="B139" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C139" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D139" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E139" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F139">
         <v>683</v>
@@ -12113,10 +12509,10 @@
         <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J139" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -12137,10 +12533,10 @@
         <v>316</v>
       </c>
       <c r="Q139" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="R139" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S139">
         <v>0</v>
@@ -12160,22 +12556,25 @@
       <c r="X139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" s="2">
         <v>45808</v>
       </c>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D140" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E140" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F140">
         <v>683</v>
@@ -12187,10 +12586,10 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J140" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -12211,10 +12610,10 @@
         <v>316</v>
       </c>
       <c r="Q140" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="R140" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -12234,22 +12633,25 @@
       <c r="X140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
       <c r="A141" s="2">
         <v>45808</v>
       </c>
       <c r="B141" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D141" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E141" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F141">
         <v>167</v>
@@ -12261,16 +12663,16 @@
         <v>27</v>
       </c>
       <c r="I141" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J141" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -12285,10 +12687,10 @@
         <v>0</v>
       </c>
       <c r="Q141" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="R141" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S141">
         <v>10</v>
@@ -12300,30 +12702,33 @@
         <v>0</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" s="2">
         <v>45808</v>
       </c>
       <c r="B142" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D142" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E142" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F142">
         <v>167</v>
@@ -12335,16 +12740,16 @@
         <v>27</v>
       </c>
       <c r="I142" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J142" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K142">
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -12359,10 +12764,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="R142" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S142">
         <v>0</v>
@@ -12382,22 +12787,25 @@
       <c r="X142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" s="2">
         <v>45808</v>
       </c>
       <c r="B143" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C143" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D143" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E143" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F143">
         <v>8948</v>
@@ -12409,10 +12817,10 @@
         <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J143" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -12433,10 +12841,10 @@
         <v>0</v>
       </c>
       <c r="Q143" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="R143" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S143">
         <v>20</v>
@@ -12451,27 +12859,30 @@
         <v>0</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" s="2">
         <v>45808</v>
       </c>
       <c r="B144" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E144" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F144">
         <v>8948</v>
@@ -12483,10 +12894,10 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J144" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -12507,10 +12918,10 @@
         <v>0</v>
       </c>
       <c r="Q144" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="R144" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S144">
         <v>20</v>
@@ -12525,27 +12936,30 @@
         <v>0</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" s="2">
         <v>45809</v>
       </c>
       <c r="B145" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D145" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E145" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F145">
         <v>8948</v>
@@ -12557,10 +12971,10 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J145" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -12581,10 +12995,10 @@
         <v>6553</v>
       </c>
       <c r="Q145" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="R145" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -12604,22 +13018,25 @@
       <c r="X145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" s="2">
         <v>45809</v>
       </c>
       <c r="B146" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D146" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E146" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F146">
         <v>8948</v>
@@ -12631,10 +13048,10 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J146" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -12655,10 +13072,10 @@
         <v>6553</v>
       </c>
       <c r="Q146" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="R146" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -12678,22 +13095,25 @@
       <c r="X146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
       <c r="A147" s="2">
         <v>45810</v>
       </c>
       <c r="B147" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D147" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F147">
         <v>708</v>
@@ -12705,13 +13125,13 @@
         <v>33</v>
       </c>
       <c r="I147" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J147" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K147" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L147">
         <v>0</v>
@@ -12729,10 +13149,10 @@
         <v>703</v>
       </c>
       <c r="Q147" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="R147" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="S147">
         <v>0</v>
@@ -12752,22 +13172,25 @@
       <c r="X147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" s="2">
         <v>45810</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C148" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D148" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F148">
         <v>708</v>
@@ -12779,13 +13202,13 @@
         <v>33</v>
       </c>
       <c r="I148" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J148" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K148" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -12803,10 +13226,10 @@
         <v>703</v>
       </c>
       <c r="Q148" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="R148" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="S148">
         <v>0</v>
@@ -12826,22 +13249,25 @@
       <c r="X148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" s="2">
         <v>45674</v>
       </c>
       <c r="B149" t="s">
-        <v>460</v>
+        <v>99</v>
       </c>
       <c r="C149" t="s">
-        <v>461</v>
+        <v>173</v>
       </c>
       <c r="D149" t="s">
-        <v>462</v>
+        <v>227</v>
       </c>
       <c r="E149" t="s">
-        <v>463</v>
+        <v>296</v>
       </c>
       <c r="F149">
         <v>966</v>
@@ -12853,10 +13279,10 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J149" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -12876,11 +13302,11 @@
       <c r="P149">
         <v>199</v>
       </c>
-      <c r="Q149" t="s">
-        <v>460</v>
-      </c>
-      <c r="R149" t="s">
-        <v>459</v>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
       </c>
       <c r="S149">
         <v>0</v>
@@ -12900,78 +13326,7 @@
       <c r="X149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B150" t="s">
-        <v>460</v>
-      </c>
-      <c r="C150" t="s">
-        <v>461</v>
-      </c>
-      <c r="D150" t="s">
-        <v>462</v>
-      </c>
-      <c r="E150" t="s">
-        <v>463</v>
-      </c>
-      <c r="F150">
-        <v>966</v>
-      </c>
-      <c r="G150">
-        <v>50</v>
-      </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="I150" t="s">
-        <v>293</v>
-      </c>
-      <c r="J150" t="s">
-        <v>304</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>149</v>
-      </c>
-      <c r="N150">
-        <v>199</v>
-      </c>
-      <c r="O150">
-        <v>149</v>
-      </c>
-      <c r="P150">
-        <v>199</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>460</v>
-      </c>
-      <c r="R150" t="s">
-        <v>458</v>
-      </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <v>0</v>
-      </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
+      <c r="Y149">
         <v>0</v>
       </c>
     </row>
